--- a/output/ejecucion_2/results/base0/base0_ci_xgb_s.xlsx
+++ b/output/ejecucion_2/results/base0/base0_ci_xgb_s.xlsx
@@ -22,154 +22,154 @@
     <t>score</t>
   </si>
   <si>
-    <t>_tejgfun_f5r18ct05pgrco</t>
+    <t>_tejgct_r09gstcp</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct06viv</t>
   </si>
   <si>
     <t>_tejgtotfun_f2opsegpc</t>
   </si>
   <si>
-    <t>_devppimfun_f5r18ct05prots</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06viv</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f2cydeppc</t>
+    <t>_tejgfun_f5ct05prots</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f1trans</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>_tejgge_r09ct06acanf</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r07ct05cydep</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct06trans</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct05prots</t>
+  </si>
+  <si>
+    <t>tejgkft_rdetpc</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct06amb</t>
+  </si>
+  <si>
+    <t>_tejgfun_f5r18ct05prots</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r18ct06agropc</t>
+  </si>
+  <si>
+    <t>devppimtotfun_f5r07salud</t>
+  </si>
+  <si>
+    <t>pimgfun_f5r18ct05trans</t>
+  </si>
+  <si>
+    <t>mod_110</t>
+  </si>
+  <si>
+    <t>_tejgtotfun_f5r08opsegpc</t>
+  </si>
+  <si>
+    <t>tdvgfun_f1ct06transpc</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06trans</t>
+  </si>
+  <si>
+    <t>pimgct_r00gstcppc</t>
   </si>
   <si>
     <t>_tejgfun_f5ct06amb</t>
   </si>
   <si>
-    <t>_tdvgge_r00ct06acanf</t>
-  </si>
-  <si>
-    <t>pimgfun_f1ct05salud</t>
-  </si>
-  <si>
-    <t>tejgtotfun_f5r18viv</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5r18ct05prots</t>
-  </si>
-  <si>
-    <t>tejgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>_dfgpimpiafun_f1ct05transpc</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagfun_f1ct05pgrco</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r18amb</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05cydep</t>
+    <t>_pimgfun_f5r18ct06opseg</t>
+  </si>
+  <si>
+    <t>devppimge_r00ct05biser</t>
+  </si>
+  <si>
+    <t>tdvgfun_f5r18ct05cydep</t>
+  </si>
+  <si>
+    <t>_devppimtotfun_f5r07trans</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r18ct05salud</t>
+  </si>
+  <si>
+    <t>empinc_2</t>
+  </si>
+  <si>
+    <t>piagfun_f5r18ct05pgrcopc</t>
+  </si>
+  <si>
+    <t>tejgfun_f5ct05trans</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5r07ct05salud</t>
+  </si>
+  <si>
+    <t>tejgfun_f5r18ct05cydeppc</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r07ct05agro</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5r18ct06opsegpc</t>
+  </si>
+  <si>
+    <t>mod_4</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f1ct06transpc</t>
+  </si>
+  <si>
+    <t>dfgpimpiage_r08ct05dotra</t>
+  </si>
+  <si>
+    <t>dfgpimpiafun_f5r08ct06agropc</t>
+  </si>
+  <si>
+    <t>pimgfun_f2ct06san</t>
+  </si>
+  <si>
+    <t>pimgfun_f1ct06san</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5r07ct05cydep</t>
   </si>
   <si>
     <t>compu_muni_1</t>
   </si>
   <si>
-    <t>piagtotfun_f5r18comepc</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagtotfun_f5r07energ</t>
-  </si>
-  <si>
-    <t>tdvgtotfun_f4cydeppc</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5r07ct05cydep</t>
-  </si>
-  <si>
-    <t>dfgpimpiatotfun_f1protspc</t>
-  </si>
-  <si>
-    <t>dfgdevpiagfun_f4ct06cydeppc</t>
-  </si>
-  <si>
-    <t>devppimge_r00ct05pobso</t>
-  </si>
-  <si>
-    <t>_devppimgge_r07ct05dotra</t>
-  </si>
-  <si>
-    <t>_devppimfun_f5ct06salud</t>
-  </si>
-  <si>
-    <t>pimgfun_f1ct06san</t>
-  </si>
-  <si>
-    <t>dfgpimpiaft_rooc</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagge_r00ct06acanf</t>
-  </si>
-  <si>
-    <t>_devppimfun_f2ct06trans</t>
-  </si>
-  <si>
-    <t>_dfgdevpiagft_rooc</t>
-  </si>
-  <si>
-    <t>_pimgtotfun_f5r18pgrcopc</t>
-  </si>
-  <si>
-    <t>pimgfun_f5r07ct06viv</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f2agropc</t>
-  </si>
-  <si>
-    <t>_tdvgge_r00ct05biser</t>
-  </si>
-  <si>
-    <t>_tejgtotfun_f5pgrco</t>
-  </si>
-  <si>
-    <t>pimgct_r00gstcppc</t>
-  </si>
-  <si>
-    <t>tdvgfun_f5r08ct06amb</t>
-  </si>
-  <si>
-    <t>_piagtotfun_f5r07san</t>
-  </si>
-  <si>
-    <t>dfgpimpiact_r19gstcppc</t>
-  </si>
-  <si>
-    <t>pimgfun_f2ct06vivpc</t>
-  </si>
-  <si>
-    <t>_tdvgge_r07ct05otgstpc</t>
-  </si>
-  <si>
-    <t>_tdvgfun_f1ct06pgrco</t>
-  </si>
-  <si>
-    <t>devppimfun_f5r07ct05turi</t>
-  </si>
-  <si>
-    <t>_tejgfun_f5ct06salud</t>
-  </si>
-  <si>
-    <t>tdvgfun_f5ct05amb</t>
-  </si>
-  <si>
-    <t>_pimgfun_f3ct06pgrcopc</t>
-  </si>
-  <si>
-    <t>tejgfun_f5r07ct06cydeppc</t>
-  </si>
-  <si>
-    <t>_tdvgtotfun_f5agro</t>
-  </si>
-  <si>
-    <t>tdvgfun_f5r07ct06ambpc</t>
-  </si>
-  <si>
-    <t>piagge_r09ct06acanfpc</t>
+    <t>piagfun_f5r07ct05trans</t>
+  </si>
+  <si>
+    <t>dfgdevpiagfun_f5r07ct05pgrcopc</t>
+  </si>
+  <si>
+    <t>_pimgfun_f5ct06opsegpc</t>
+  </si>
+  <si>
+    <t>mod_103</t>
+  </si>
+  <si>
+    <t>devppimfun_f5r18ct06energ</t>
+  </si>
+  <si>
+    <t>_devppimfun_f5ct05salud</t>
+  </si>
+  <si>
+    <t>_dfgpimpiafun_f1ct06opsegpc</t>
+  </si>
+  <si>
+    <t>_dfgdevpiagfun_f2ct05prsopc</t>
   </si>
 </sst>
 </file>
@@ -549,7 +549,7 @@
         <v>2</v>
       </c>
       <c r="C2">
-        <v>0.02619519457221031</v>
+        <v>0.0254090279340744</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -560,7 +560,7 @@
         <v>3</v>
       </c>
       <c r="C3">
-        <v>0.02264170907437801</v>
+        <v>0.0232990924268961</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -571,7 +571,7 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <v>0.01616792008280754</v>
+        <v>0.0223840344697237</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -582,7 +582,7 @@
         <v>5</v>
       </c>
       <c r="C5">
-        <v>0.01510533317923546</v>
+        <v>0.01770706288516521</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -593,7 +593,7 @@
         <v>6</v>
       </c>
       <c r="C6">
-        <v>0.01487780828028917</v>
+        <v>0.01620905660092831</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -604,7 +604,7 @@
         <v>7</v>
       </c>
       <c r="C7">
-        <v>0.01304383296519518</v>
+        <v>0.01484724041074514</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -615,7 +615,7 @@
         <v>8</v>
       </c>
       <c r="C8">
-        <v>0.01285365968942642</v>
+        <v>0.01294951979070902</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -626,7 +626,7 @@
         <v>9</v>
       </c>
       <c r="C9">
-        <v>0.01267834100872278</v>
+        <v>0.01273930724710226</v>
       </c>
     </row>
     <row r="10" spans="1:3">
@@ -637,7 +637,7 @@
         <v>10</v>
       </c>
       <c r="C10">
-        <v>0.01250071078538895</v>
+        <v>0.01232943683862686</v>
       </c>
     </row>
     <row r="11" spans="1:3">
@@ -648,7 +648,7 @@
         <v>11</v>
       </c>
       <c r="C11">
-        <v>0.01224236190319061</v>
+        <v>0.01221377309411764</v>
       </c>
     </row>
     <row r="12" spans="1:3">
@@ -659,7 +659,7 @@
         <v>12</v>
       </c>
       <c r="C12">
-        <v>0.01044406462460756</v>
+        <v>0.01138773560523987</v>
       </c>
     </row>
     <row r="13" spans="1:3">
@@ -670,7 +670,7 @@
         <v>13</v>
       </c>
       <c r="C13">
-        <v>0.01033063791692257</v>
+        <v>0.01078783255070448</v>
       </c>
     </row>
     <row r="14" spans="1:3">
@@ -681,7 +681,7 @@
         <v>14</v>
       </c>
       <c r="C14">
-        <v>0.009256708435714245</v>
+        <v>0.01048282720148563</v>
       </c>
     </row>
     <row r="15" spans="1:3">
@@ -692,7 +692,7 @@
         <v>15</v>
       </c>
       <c r="C15">
-        <v>0.009058022871613503</v>
+        <v>0.009863639250397682</v>
       </c>
     </row>
     <row r="16" spans="1:3">
@@ -703,7 +703,7 @@
         <v>16</v>
       </c>
       <c r="C16">
-        <v>0.009020712226629257</v>
+        <v>0.009600085206329823</v>
       </c>
     </row>
     <row r="17" spans="1:3">
@@ -714,7 +714,7 @@
         <v>17</v>
       </c>
       <c r="C17">
-        <v>0.00834005419164896</v>
+        <v>0.009527770802378654</v>
       </c>
     </row>
     <row r="18" spans="1:3">
@@ -725,7 +725,7 @@
         <v>18</v>
       </c>
       <c r="C18">
-        <v>0.008152167312800884</v>
+        <v>0.009338928386569023</v>
       </c>
     </row>
     <row r="19" spans="1:3">
@@ -736,7 +736,7 @@
         <v>19</v>
       </c>
       <c r="C19">
-        <v>0.007920815609395504</v>
+        <v>0.008815799839794636</v>
       </c>
     </row>
     <row r="20" spans="1:3">
@@ -747,7 +747,7 @@
         <v>20</v>
       </c>
       <c r="C20">
-        <v>0.007917409762740135</v>
+        <v>0.008676604367792606</v>
       </c>
     </row>
     <row r="21" spans="1:3">
@@ -758,7 +758,7 @@
         <v>21</v>
       </c>
       <c r="C21">
-        <v>0.0078844353556633</v>
+        <v>0.008283902890980244</v>
       </c>
     </row>
     <row r="22" spans="1:3">
@@ -769,7 +769,7 @@
         <v>22</v>
       </c>
       <c r="C22">
-        <v>0.007782218046486378</v>
+        <v>0.008233900181949139</v>
       </c>
     </row>
     <row r="23" spans="1:3">
@@ -780,7 +780,7 @@
         <v>23</v>
       </c>
       <c r="C23">
-        <v>0.007625565398484468</v>
+        <v>0.007686045486479998</v>
       </c>
     </row>
     <row r="24" spans="1:3">
@@ -791,7 +791,7 @@
         <v>24</v>
       </c>
       <c r="C24">
-        <v>0.007507067639380693</v>
+        <v>0.007376410998404026</v>
       </c>
     </row>
     <row r="25" spans="1:3">
@@ -802,7 +802,7 @@
         <v>25</v>
       </c>
       <c r="C25">
-        <v>0.007254698313772678</v>
+        <v>0.007189224474132061</v>
       </c>
     </row>
     <row r="26" spans="1:3">
@@ -813,7 +813,7 @@
         <v>26</v>
       </c>
       <c r="C26">
-        <v>0.007224167231470346</v>
+        <v>0.00667710741981864</v>
       </c>
     </row>
     <row r="27" spans="1:3">
@@ -824,7 +824,7 @@
         <v>27</v>
       </c>
       <c r="C27">
-        <v>0.007100720424205065</v>
+        <v>0.006483918521553278</v>
       </c>
     </row>
     <row r="28" spans="1:3">
@@ -835,7 +835,7 @@
         <v>28</v>
       </c>
       <c r="C28">
-        <v>0.006729283835738897</v>
+        <v>0.006331060081720352</v>
       </c>
     </row>
     <row r="29" spans="1:3">
@@ -846,7 +846,7 @@
         <v>29</v>
       </c>
       <c r="C29">
-        <v>0.006390011869370937</v>
+        <v>0.006263700313866138</v>
       </c>
     </row>
     <row r="30" spans="1:3">
@@ -857,7 +857,7 @@
         <v>30</v>
       </c>
       <c r="C30">
-        <v>0.006343631539493799</v>
+        <v>0.006196929141879082</v>
       </c>
     </row>
     <row r="31" spans="1:3">
@@ -868,7 +868,7 @@
         <v>31</v>
       </c>
       <c r="C31">
-        <v>0.006139382719993591</v>
+        <v>0.006103032734245062</v>
       </c>
     </row>
     <row r="32" spans="1:3">
@@ -879,7 +879,7 @@
         <v>32</v>
       </c>
       <c r="C32">
-        <v>0.006051466334611177</v>
+        <v>0.006074834149330854</v>
       </c>
     </row>
     <row r="33" spans="1:3">
@@ -890,7 +890,7 @@
         <v>33</v>
       </c>
       <c r="C33">
-        <v>0.005912580993026495</v>
+        <v>0.005743281450122595</v>
       </c>
     </row>
     <row r="34" spans="1:3">
@@ -901,7 +901,7 @@
         <v>34</v>
       </c>
       <c r="C34">
-        <v>0.005768775008618832</v>
+        <v>0.005696508567780256</v>
       </c>
     </row>
     <row r="35" spans="1:3">
@@ -912,7 +912,7 @@
         <v>35</v>
       </c>
       <c r="C35">
-        <v>0.005571263376623392</v>
+        <v>0.005582868587225676</v>
       </c>
     </row>
     <row r="36" spans="1:3">
@@ -923,7 +923,7 @@
         <v>36</v>
       </c>
       <c r="C36">
-        <v>0.005259126424789429</v>
+        <v>0.005560555029660463</v>
       </c>
     </row>
     <row r="37" spans="1:3">
@@ -934,7 +934,7 @@
         <v>37</v>
       </c>
       <c r="C37">
-        <v>0.005061611533164978</v>
+        <v>0.005471393465995789</v>
       </c>
     </row>
     <row r="38" spans="1:3">
@@ -945,7 +945,7 @@
         <v>38</v>
       </c>
       <c r="C38">
-        <v>0.005033283028751612</v>
+        <v>0.00543140945956111</v>
       </c>
     </row>
     <row r="39" spans="1:3">
@@ -956,7 +956,7 @@
         <v>39</v>
       </c>
       <c r="C39">
-        <v>0.005004535894840956</v>
+        <v>0.005371361970901489</v>
       </c>
     </row>
     <row r="40" spans="1:3">
@@ -967,7 +967,7 @@
         <v>40</v>
       </c>
       <c r="C40">
-        <v>0.004895731806755066</v>
+        <v>0.005345821846276522</v>
       </c>
     </row>
     <row r="41" spans="1:3">
@@ -978,7 +978,7 @@
         <v>41</v>
       </c>
       <c r="C41">
-        <v>0.004875997081398964</v>
+        <v>0.005172608885914087</v>
       </c>
     </row>
     <row r="42" spans="1:3">
@@ -989,7 +989,7 @@
         <v>42</v>
       </c>
       <c r="C42">
-        <v>0.00487179309129715</v>
+        <v>0.00497081084176898</v>
       </c>
     </row>
     <row r="43" spans="1:3">
@@ -1000,7 +1000,7 @@
         <v>43</v>
       </c>
       <c r="C43">
-        <v>0.004847733769565821</v>
+        <v>0.004912454634904861</v>
       </c>
     </row>
     <row r="44" spans="1:3">
@@ -1011,7 +1011,7 @@
         <v>44</v>
       </c>
       <c r="C44">
-        <v>0.004730287473648787</v>
+        <v>0.004871451295912266</v>
       </c>
     </row>
     <row r="45" spans="1:3">
@@ -1022,7 +1022,7 @@
         <v>45</v>
       </c>
       <c r="C45">
-        <v>0.004723137244582176</v>
+        <v>0.004804256372153759</v>
       </c>
     </row>
     <row r="46" spans="1:3">
@@ -1033,7 +1033,7 @@
         <v>46</v>
       </c>
       <c r="C46">
-        <v>0.00452374154701829</v>
+        <v>0.004735405091196299</v>
       </c>
     </row>
     <row r="47" spans="1:3">
@@ -1044,7 +1044,7 @@
         <v>47</v>
       </c>
       <c r="C47">
-        <v>0.004416338168084621</v>
+        <v>0.004706101957708597</v>
       </c>
     </row>
     <row r="48" spans="1:3">
@@ -1055,7 +1055,7 @@
         <v>48</v>
       </c>
       <c r="C48">
-        <v>0.004400476347655058</v>
+        <v>0.00468203192576766</v>
       </c>
     </row>
     <row r="49" spans="1:3">
@@ -1066,7 +1066,7 @@
         <v>49</v>
       </c>
       <c r="C49">
-        <v>0.004382542334496975</v>
+        <v>0.004647127818316221</v>
       </c>
     </row>
     <row r="50" spans="1:3">
@@ -1077,7 +1077,7 @@
         <v>50</v>
       </c>
       <c r="C50">
-        <v>0.004324688110500574</v>
+        <v>0.004544373601675034</v>
       </c>
     </row>
     <row r="51" spans="1:3">
@@ -1088,7 +1088,7 @@
         <v>51</v>
       </c>
       <c r="C51">
-        <v>0.004303886089473963</v>
+        <v>0.004535902757197618</v>
       </c>
     </row>
   </sheetData>
